--- a/documents/test/3_Testing_Projektleiter.xlsx
+++ b/documents/test/3_Testing_Projektleiter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7704"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
-  <si>
-    <t>Gast</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -43,18 +40,6 @@
     <t>Testdatum</t>
   </si>
   <si>
-    <t>Registrierung</t>
-  </si>
-  <si>
-    <t>Registrieren</t>
-  </si>
-  <si>
-    <t>Registrierung erfolgreich</t>
-  </si>
-  <si>
-    <t>Angelegter Nutzer muss noch freigeschaltet werden</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -73,61 +58,55 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Startseite angesehen</t>
-  </si>
-  <si>
-    <t>Startseite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Funktionen</t>
-  </si>
-  <si>
-    <t>Funktionsseite angesehen</t>
-  </si>
-  <si>
-    <t>Funktionsseite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Über Uns</t>
-  </si>
-  <si>
-    <t>Über Uns-Seite angesehen</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>Über Uns-Seite wird angezeigt</t>
-  </si>
-  <si>
-    <t>Zeitachse angeklickt</t>
-  </si>
-  <si>
-    <t>Zeitachse wird angezeigt</t>
-  </si>
-  <si>
-    <t>Zeitachse wird nicht vollständig dargestellt</t>
-  </si>
-  <si>
-    <t>Impressum</t>
-  </si>
-  <si>
-    <t>Impressum angeklickt</t>
-  </si>
-  <si>
-    <t>Impressum wird geöffnet</t>
-  </si>
-  <si>
-    <t>Overlay wird dargestellt aber noch nicht mit Daten gefüllt</t>
-  </si>
-  <si>
-    <t>Alle Module</t>
-  </si>
-  <si>
-    <t>Anklicken von PAMS-Überschrift</t>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard angeklickt</t>
+  </si>
+  <si>
+    <t>Dashboard wird angezeigt</t>
+  </si>
+  <si>
+    <t>Anzahl offener Anträge stimmt nicht - User m2 hat laut Teststatement 1 Projektantrag erstellt</t>
+  </si>
+  <si>
+    <t>NEIN</t>
+  </si>
+  <si>
+    <t>Anträge</t>
+  </si>
+  <si>
+    <t>Antragsseite angeklickt</t>
+  </si>
+  <si>
+    <t>Antragsseite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Antragsseite nicht funktionsfähig</t>
+  </si>
+  <si>
+    <t>Stammdaten</t>
+  </si>
+  <si>
+    <t>Stammdaten angeklickt</t>
+  </si>
+  <si>
+    <t>Stammdatenseite wird angezeigt</t>
+  </si>
+  <si>
+    <t>Anzeige "Keine Berechtigung"</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Klick auf PAMS</t>
   </si>
 </sst>
 </file>
@@ -279,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -308,9 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -321,7 +297,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -645,265 +641,225 @@
   <dimension ref="B1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="10">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="I9" s="10">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I10" s="10">
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -911,9 +867,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -921,9 +877,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -931,9 +887,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -941,9 +897,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -951,9 +907,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -963,7 +919,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -973,7 +929,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -983,7 +939,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -993,7 +949,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1003,7 +959,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1013,7 +969,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1023,7 +979,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1033,7 +989,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1043,7 +999,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1053,7 +1009,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1063,7 +1019,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1073,7 +1029,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1083,7 +1039,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1093,7 +1049,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1103,7 +1059,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1113,7 +1069,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1123,7 +1079,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1133,7 +1089,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1143,7 +1099,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1153,7 +1109,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1163,7 +1119,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1173,7 +1129,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1183,7 +1139,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1193,7 +1149,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1203,17 +1159,17 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1223,7 +1179,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1233,7 +1189,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1243,7 +1199,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1253,7 +1209,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1263,7 +1219,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1273,7 +1229,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1283,7 +1239,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1293,7 +1249,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1304,12 +1260,20 @@
       <c r="I53" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:H15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H11:H15">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Nein"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
